--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_optrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_optrodeRM1-LM1-EMG_KK01.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -211,13 +211,7 @@
     <t>DoB:</t>
   </si>
   <si>
-    <t>COMM, GND, R-PC, R-M1, anchor screws</t>
-  </si>
-  <si>
     <t>COMM &amp; R-M1 in block: R-PC, GND, EMG</t>
-  </si>
-  <si>
-    <t>R-PC, GND, COMM &amp; R-M1 in block, Anchor screws, EMG</t>
   </si>
   <si>
     <t>L-M1</t>
@@ -259,94 +253,90 @@
     <t>Quality control/Acceptance criteria:</t>
   </si>
   <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8425-MC wires to pin heads. EEG screws to pin tail (1.5cm) </t>
+  </si>
+  <si>
+    <t>__________</t>
+  </si>
+  <si>
+    <t>(Lambda_X)-(1.5*adjust_ratio) =
+_____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)-(1.5*adjust_ratio) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Z)-0.0 =
+ _____</t>
+  </si>
+  <si>
+    <t>(Bregma_X)+(1.5*adjust_ratio) =
+_____</t>
+  </si>
+  <si>
+    <t>(Bregma_X)+(1.1*adjust_ratio) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Lambda_X)-(1.5*adjust_ratio) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)+(2.0*adjust_ratio) =
+_____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)-(2.0*adjust_ratio) =
+_____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)+(1.5*adjust_ratio) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Z)-0.7 =
+_____</t>
+  </si>
+  <si>
+    <t>(Bregma_Z)-0.0 =
+_____</t>
+  </si>
+  <si>
+    <t>EMG/EEG-Ch1</t>
+  </si>
+  <si>
+    <t>LM1/EEG-Ch2</t>
+  </si>
+  <si>
+    <t>RM1/EEG-Ch3&amp;6</t>
+  </si>
+  <si>
+    <t>Anchor, L-M1, GND, COMM, glue, R-M1 optrode, glue, EMG, cement</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Verify Tilt: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>±</t>
+      <t>±2.0 mm lateral of sagital suture, measure Z</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.0 mm lateral of sagital suture, measure Z</t>
-    </r>
-  </si>
-  <si>
-    <t>Criterion</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8425-MC wires to pin heads. EEG screws to pin tail (1.5cm) </t>
-  </si>
-  <si>
-    <t>__________</t>
-  </si>
-  <si>
-    <t>(Lambda_X)-(1.5*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Lambda_Y)-(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Z)-0.0 =
- _____</t>
-  </si>
-  <si>
-    <t>(Bregma_X)+(1.5*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_X)+(1.1*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
-    <t>(Lambda_X)-(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)+(2.0*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)-(2.0*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Lambda_Y)+(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Z)-0.7 =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_Z)-0.0 =
-_____</t>
-  </si>
-  <si>
-    <t>EMG/EEG-Ch1</t>
-  </si>
-  <si>
-    <t>LM1/EEG-Ch2</t>
-  </si>
-  <si>
-    <t>RM1/EEG-Ch3&amp;6</t>
+  </si>
+  <si>
+    <t>GND, COMM, L-M1, anchor screws, switch drill bit: R-M1</t>
   </si>
 </sst>
 </file>
@@ -356,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,18 +375,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -408,8 +386,32 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -442,54 +444,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,12 +507,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -526,12 +525,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -544,21 +543,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -572,12 +569,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -590,12 +587,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -608,12 +605,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -626,12 +623,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -644,12 +641,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -662,7 +659,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -676,7 +673,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -690,7 +687,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -704,7 +701,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -718,7 +715,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -732,7 +729,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -746,7 +743,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -775,13 +772,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>65617</xdr:rowOff>
+          <xdr:rowOff>431800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -891,8 +888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D6:G15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="D6:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D6:G14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="D6:G14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Location" dataDxfId="12"/>
     <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="11"/>
@@ -904,8 +901,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A18:G27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A18:G27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A15:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A15:G24"/>
   <tableColumns count="7">
     <tableColumn id="1" name="TARGETS" dataDxfId="6"/>
     <tableColumn id="2" name="X (mm)" dataDxfId="5"/>
@@ -1211,8 +1208,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1223,329 +1220,349 @@
     <col min="4" max="4" width="16.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="62" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="62" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="3" t="s">
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.5">
+      <c r="A21" s="4">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="E22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="63.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>0.1</v>
       </c>
-      <c r="B27" s="1">
-        <f>A24/60</f>
+      <c r="B24" s="4">
+        <f>A21/60</f>
         <v>0.5</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
@@ -1558,13 +1575,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>6350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1447800</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>431800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_optrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_optrodeRM1-LM1-EMG_KK01.xlsx
@@ -1208,8 +1208,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_optrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_optrodeRM1-LM1-EMG_KK01.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1562,7 @@
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
